--- a/color_comida.xlsx
+++ b/color_comida.xlsx
@@ -15,7 +15,7 @@
     <sheet name="comida" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comida!$A$1:$I$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comida!$A$1:$I$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="110">
   <si>
     <t>Fecha</t>
   </si>
@@ -224,9 +224,6 @@
     <t>hongo</t>
   </si>
   <si>
-    <t>raba</t>
-  </si>
-  <si>
     <t>calabaza</t>
   </si>
   <si>
@@ -387,6 +384,15 @@
   </si>
   <si>
     <t>matambre a la pizza c/ ensalada</t>
+  </si>
+  <si>
+    <t>cabutia rellena</t>
+  </si>
+  <si>
+    <t>cabutia</t>
+  </si>
+  <si>
+    <t>verdeo</t>
   </si>
 </sst>
 </file>
@@ -812,11 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -833,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -859,25 +865,25 @@
         <v>44051</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -888,25 +894,25 @@
         <v>44051</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>0.4</v>
@@ -917,25 +923,25 @@
         <v>44051</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>0.1</v>
@@ -946,25 +952,25 @@
         <v>44051</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>0.2</v>
@@ -975,25 +981,25 @@
         <v>44051</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0.4</v>
@@ -1004,25 +1010,25 @@
         <v>44051</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7">
         <v>0.1</v>
@@ -1033,25 +1039,25 @@
         <v>44051</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>0.1</v>
@@ -1062,25 +1068,25 @@
         <v>44051</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9">
         <v>0.1</v>
@@ -1091,25 +1097,25 @@
         <v>44051</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>0.1</v>
@@ -1120,25 +1126,25 @@
         <v>44052</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>0.3</v>
@@ -1149,25 +1155,25 @@
         <v>44052</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <v>0.3</v>
@@ -1178,25 +1184,25 @@
         <v>44052</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>0.2</v>
@@ -1207,25 +1213,25 @@
         <v>44052</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14">
         <v>0.2</v>
@@ -1236,25 +1242,25 @@
         <v>44052</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>0.3</v>
@@ -1265,25 +1271,25 @@
         <v>44052</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16">
         <v>0.15</v>
@@ -1294,25 +1300,25 @@
         <v>44052</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17">
         <v>0.15</v>
@@ -1323,25 +1329,25 @@
         <v>44052</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18">
         <v>0.15</v>
@@ -1352,25 +1358,25 @@
         <v>44052</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>0.1</v>
@@ -1381,25 +1387,25 @@
         <v>44052</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20">
         <v>0.1</v>
@@ -1410,25 +1416,25 @@
         <v>44052</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>0.05</v>
@@ -1439,25 +1445,25 @@
         <v>44053</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>0.5</v>
@@ -1468,25 +1474,25 @@
         <v>44053</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>0.15</v>
@@ -1497,25 +1503,25 @@
         <v>44053</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24">
         <v>0.15</v>
@@ -1526,25 +1532,25 @@
         <v>44053</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>0.2</v>
@@ -1555,25 +1561,25 @@
         <v>44053</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26">
         <v>0.6</v>
@@ -1584,25 +1590,25 @@
         <v>44053</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27">
         <v>0.4</v>
@@ -1613,25 +1619,25 @@
         <v>44054</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28">
         <v>0.4</v>
@@ -1642,25 +1648,25 @@
         <v>44054</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I29">
         <v>0.5</v>
@@ -1671,25 +1677,25 @@
         <v>44054</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>0.1</v>
@@ -1700,25 +1706,25 @@
         <v>44054</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31">
         <v>0.5</v>
@@ -1729,25 +1735,25 @@
         <v>44054</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32">
         <v>0.5</v>
@@ -1758,25 +1764,25 @@
         <v>44055</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33">
         <v>0.8</v>
@@ -1787,25 +1793,25 @@
         <v>44055</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34">
         <v>0.2</v>
@@ -1816,25 +1822,25 @@
         <v>44055</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I35">
         <v>0.5</v>
@@ -1845,25 +1851,25 @@
         <v>44055</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -1874,25 +1880,25 @@
         <v>44056</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37">
         <v>0.5</v>
@@ -1903,25 +1909,25 @@
         <v>44056</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38">
         <v>0.25</v>
@@ -1932,25 +1938,25 @@
         <v>44056</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>0.25</v>
@@ -1961,25 +1967,25 @@
         <v>44056</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I40">
         <v>0.5</v>
@@ -1990,25 +1996,25 @@
         <v>44056</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41">
         <v>0.15</v>
@@ -2019,25 +2025,25 @@
         <v>44056</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42">
         <v>0.2</v>
@@ -2048,25 +2054,25 @@
         <v>44056</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43">
         <v>0.15</v>
@@ -2077,10 +2083,10 @@
         <v>44057</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -2089,13 +2095,13 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I44">
         <v>0.2</v>
@@ -2106,10 +2112,10 @@
         <v>44057</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
@@ -2118,13 +2124,13 @@
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45">
         <v>0.6</v>
@@ -2135,10 +2141,10 @@
         <v>44057</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -2147,13 +2153,13 @@
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46">
         <v>0.1</v>
@@ -2164,10 +2170,10 @@
         <v>44057</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -2176,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>0.05</v>
@@ -2193,10 +2199,10 @@
         <v>44057</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -2205,13 +2211,13 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48">
         <v>0.05</v>
@@ -2222,25 +2228,25 @@
         <v>44057</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49">
         <v>0.3</v>
@@ -2251,25 +2257,25 @@
         <v>44057</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I50">
         <v>0.2</v>
@@ -2280,25 +2286,25 @@
         <v>44057</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
         <v>43</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51">
         <v>0.2</v>
@@ -2309,25 +2315,25 @@
         <v>44057</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>0.1</v>
@@ -2338,25 +2344,25 @@
         <v>44057</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I53">
         <v>0.1</v>
@@ -2367,25 +2373,25 @@
         <v>44057</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
         <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I54">
         <v>0.05</v>
@@ -2396,25 +2402,25 @@
         <v>44057</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I55">
         <v>0.05</v>
@@ -2425,10 +2431,10 @@
         <v>44058</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -2437,13 +2443,13 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I56">
         <v>0.2</v>
@@ -2454,10 +2460,10 @@
         <v>44058</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -2466,13 +2472,13 @@
         <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I57">
         <v>0.25</v>
@@ -2483,10 +2489,10 @@
         <v>44058</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -2495,13 +2501,13 @@
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
         <v>0.25</v>
@@ -2512,10 +2518,10 @@
         <v>44058</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -2524,13 +2530,13 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s">
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I59">
         <v>0.25</v>
@@ -2541,10 +2547,10 @@
         <v>44058</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -2553,13 +2559,13 @@
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I60">
         <v>0.05</v>
@@ -2570,25 +2576,25 @@
         <v>44058</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I61">
         <v>0.35</v>
@@ -2599,57 +2605,57 @@
         <v>44058</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="I62">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I63">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2657,28 +2663,28 @@
         <v>44059</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I64">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2686,25 +2692,25 @@
         <v>44059</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="I65">
         <v>0.1</v>
@@ -2715,24 +2721,24 @@
         <v>44059</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I66">
@@ -2744,10 +2750,10 @@
         <v>44059</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
@@ -2756,13 +2762,13 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I67">
         <v>0.1</v>
@@ -2773,25 +2779,25 @@
         <v>44059</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I68">
         <v>0.1</v>
@@ -2802,28 +2808,28 @@
         <v>44059</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I69">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2831,25 +2837,25 @@
         <v>44059</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I70">
         <v>7.4999999999999997E-2</v>
@@ -2860,28 +2866,28 @@
         <v>44059</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I71">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2892,25 +2898,25 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I72">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2918,28 +2924,28 @@
         <v>44059</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
         <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G73" t="s">
-        <v>72</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I73">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2947,28 +2953,28 @@
         <v>44059</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I74">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2976,28 +2982,28 @@
         <v>44059</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
         <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I75">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3005,57 +3011,57 @@
         <v>44059</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
         <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I76">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I77">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3063,28 +3069,28 @@
         <v>44060</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
         <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I78">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3092,28 +3098,28 @@
         <v>44060</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I79">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3127,22 +3133,22 @@
         <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H80" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I80">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3150,28 +3156,28 @@
         <v>44060</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G81" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>59</v>
+      <c r="H81" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I81">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3179,28 +3185,28 @@
         <v>44060</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
         <v>75</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I82">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3208,25 +3214,25 @@
         <v>44060</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="I83">
         <v>0.2</v>
@@ -3234,31 +3240,31 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I84">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3266,28 +3272,28 @@
         <v>44061</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I85">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3295,28 +3301,28 @@
         <v>44061</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I86">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3327,25 +3333,25 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
         <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I87">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3353,28 +3359,28 @@
         <v>44061</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I88">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3382,25 +3388,25 @@
         <v>44061</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>65</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I89">
         <v>0.15</v>
@@ -3411,54 +3417,54 @@
         <v>44061</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I90">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I91">
         <v>0.2</v>
@@ -3469,28 +3475,28 @@
         <v>44062</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G92" t="s">
         <v>72</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>59</v>
+      <c r="H92" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I92">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3498,28 +3504,28 @@
         <v>44062</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I93">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3527,28 +3533,28 @@
         <v>44062</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I94">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3556,25 +3562,25 @@
         <v>44062</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I95">
         <v>2.5000000000000001E-2</v>
@@ -3585,28 +3591,28 @@
         <v>44062</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I96">
-        <v>2.5000000000000001E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3614,28 +3620,28 @@
         <v>44062</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I97">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3646,25 +3652,25 @@
         <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I98">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3672,25 +3678,25 @@
         <v>44062</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I99">
         <v>0.5</v>
@@ -3698,31 +3704,31 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I100">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -3730,28 +3736,28 @@
         <v>44063</v>
       </c>
       <c r="B101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I101">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -3765,22 +3771,22 @@
         <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G102" t="s">
         <v>72</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>59</v>
+      <c r="H102" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I102">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -3788,28 +3794,28 @@
         <v>44063</v>
       </c>
       <c r="B103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I103">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -3817,57 +3823,57 @@
         <v>44063</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I104">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I105">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -3875,28 +3881,28 @@
         <v>44064</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G106" t="s">
-        <v>72</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I106">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -3904,28 +3910,28 @@
         <v>44064</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I107">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -3933,28 +3939,28 @@
         <v>44064</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I108">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -3965,25 +3971,25 @@
         <v>85</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
         <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F109" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="I109">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -3991,28 +3997,28 @@
         <v>44064</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C110" t="s">
         <v>65</v>
       </c>
       <c r="D110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>73</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I110">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4020,28 +4026,28 @@
         <v>44064</v>
       </c>
       <c r="B111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I111">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4049,28 +4055,28 @@
         <v>44064</v>
       </c>
       <c r="B112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
         <v>76</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I112">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4078,25 +4084,25 @@
         <v>44064</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I113">
         <v>0.15</v>
@@ -4104,35 +4110,267 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" t="s">
+        <v>82</v>
+      </c>
+      <c r="F114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>106</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I116">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" t="s">
+        <v>76</v>
+      </c>
+      <c r="G117" t="s">
+        <v>43</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I118">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" t="s">
         <v>107</v>
       </c>
-      <c r="E114" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" t="s">
-        <v>77</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="E119" t="s">
+        <v>108</v>
+      </c>
+      <c r="F119" t="s">
+        <v>76</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I119">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>75</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
+        <v>44065</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" t="s">
+        <v>76</v>
+      </c>
+      <c r="G122" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I114">
-        <v>0.15</v>
+      <c r="H122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I122">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I114"/>
+  <autoFilter ref="A1:I113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/color_comida.xlsx
+++ b/color_comida.xlsx
@@ -365,9 +365,6 @@
     <t>sushi</t>
   </si>
   <si>
-    <t>tortellini al curry</t>
-  </si>
-  <si>
     <t>mila c/ espinaca a la crema</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>verdeo</t>
+  </si>
+  <si>
+    <t>tortellini de salmon al curry</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2582,7 +2582,7 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>37</v>
@@ -2611,7 +2611,7 @@
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -3046,7 +3046,7 @@
         <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -3075,7 +3075,7 @@
         <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E78" t="s">
         <v>45</v>
@@ -3104,7 +3104,7 @@
         <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
@@ -3249,7 +3249,7 @@
         <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -3278,7 +3278,7 @@
         <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
@@ -3307,7 +3307,7 @@
         <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -3336,7 +3336,7 @@
         <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -3365,7 +3365,7 @@
         <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -3394,7 +3394,7 @@
         <v>65</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -3423,7 +3423,7 @@
         <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -3655,7 +3655,7 @@
         <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
         <v>49</v>
@@ -3684,7 +3684,7 @@
         <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
@@ -3713,7 +3713,7 @@
         <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
         <v>49</v>
@@ -3742,7 +3742,7 @@
         <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
@@ -3771,7 +3771,7 @@
         <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -3800,7 +3800,7 @@
         <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
         <v>45</v>
@@ -3829,7 +3829,7 @@
         <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -3858,7 +3858,7 @@
         <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s">
         <v>22</v>
@@ -3887,7 +3887,7 @@
         <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -3916,7 +3916,7 @@
         <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
@@ -3945,7 +3945,7 @@
         <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -3974,7 +3974,7 @@
         <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E109" t="s">
         <v>82</v>
@@ -4003,7 +4003,7 @@
         <v>65</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -4032,7 +4032,7 @@
         <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -4061,7 +4061,7 @@
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
         <v>25</v>
@@ -4090,7 +4090,7 @@
         <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E113" t="s">
         <v>24</v>
@@ -4119,7 +4119,7 @@
         <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E114" t="s">
         <v>82</v>
@@ -4148,7 +4148,7 @@
         <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -4177,7 +4177,7 @@
         <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
@@ -4206,7 +4206,7 @@
         <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E117" t="s">
         <v>25</v>
@@ -4235,7 +4235,7 @@
         <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E118" t="s">
         <v>24</v>
@@ -4264,10 +4264,10 @@
         <v>65</v>
       </c>
       <c r="D119" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" t="s">
         <v>107</v>
-      </c>
-      <c r="E119" t="s">
-        <v>108</v>
       </c>
       <c r="F119" t="s">
         <v>76</v>
@@ -4293,7 +4293,7 @@
         <v>65</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -4322,10 +4322,10 @@
         <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F121" t="s">
         <v>76</v>
@@ -4351,7 +4351,7 @@
         <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E122" t="s">
         <v>36</v>

--- a/color_comida.xlsx
+++ b/color_comida.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="113">
   <si>
     <t>Fecha</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>tortellini de salmon al curry</t>
+  </si>
+  <si>
+    <t>sandwich miga</t>
+  </si>
+  <si>
+    <t>pavita</t>
+  </si>
+  <si>
+    <t>anana</t>
   </si>
 </sst>
 </file>
@@ -510,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -524,6 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4369,6 +4379,354 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" t="s">
+        <v>78</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" t="s">
+        <v>78</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" t="s">
+        <v>74</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>74</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I127" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" t="s">
+        <v>112</v>
+      </c>
+      <c r="F128" t="s">
+        <v>77</v>
+      </c>
+      <c r="G128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B129" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" t="s">
+        <v>90</v>
+      </c>
+      <c r="E129" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I129">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" t="s">
+        <v>90</v>
+      </c>
+      <c r="E130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I130">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+      <c r="E131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" t="s">
+        <v>76</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I131">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B132" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" t="s">
+        <v>90</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132" t="s">
+        <v>43</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I132">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>90</v>
+      </c>
+      <c r="E133" t="s">
+        <v>54</v>
+      </c>
+      <c r="F133" t="s">
+        <v>76</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I133">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
+        <v>44066</v>
+      </c>
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+      <c r="E134" t="s">
+        <v>55</v>
+      </c>
+      <c r="F134" t="s">
+        <v>76</v>
+      </c>
+      <c r="G134" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/color_comida.xlsx
+++ b/color_comida.xlsx
@@ -831,8 +831,8 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4579,7 +4579,7 @@
         <v>83</v>
       </c>
       <c r="I129">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4724,7 +4724,7 @@
         <v>57</v>
       </c>
       <c r="I134">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/color_comida.xlsx
+++ b/color_comida.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="114">
   <si>
     <t>Fecha</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>anana</t>
+  </si>
+  <si>
+    <t>fideo</t>
   </si>
 </sst>
 </file>
@@ -828,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1276,7 @@
         <v>83</v>
       </c>
       <c r="I15">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1302,7 +1305,7 @@
         <v>59</v>
       </c>
       <c r="I16">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2607,7 +2610,7 @@
         <v>56</v>
       </c>
       <c r="I61">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2636,7 +2639,7 @@
         <v>62</v>
       </c>
       <c r="I62">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4463,7 +4466,7 @@
         <v>81</v>
       </c>
       <c r="I125">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4492,7 +4495,7 @@
         <v>81</v>
       </c>
       <c r="I126">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4521,7 +4524,7 @@
         <v>61</v>
       </c>
       <c r="I127" s="13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4550,7 +4553,7 @@
         <v>57</v>
       </c>
       <c r="I128">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4579,7 +4582,7 @@
         <v>83</v>
       </c>
       <c r="I129">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4608,7 +4611,7 @@
         <v>59</v>
       </c>
       <c r="I130">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -4625,19 +4628,19 @@
         <v>90</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F131" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I131">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -4648,83 +4651,25 @@
         <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
         <v>90</v>
       </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I132">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="9">
-        <v>44066</v>
-      </c>
-      <c r="B133" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" t="s">
-        <v>90</v>
-      </c>
-      <c r="E133" t="s">
-        <v>54</v>
-      </c>
-      <c r="F133" t="s">
-        <v>76</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I133">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="9">
-        <v>44066</v>
-      </c>
-      <c r="B134" t="s">
-        <v>85</v>
-      </c>
-      <c r="C134" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" t="s">
-        <v>90</v>
-      </c>
-      <c r="E134" t="s">
-        <v>55</v>
-      </c>
-      <c r="F134" t="s">
-        <v>76</v>
-      </c>
-      <c r="G134" t="s">
-        <v>43</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I134">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/color_comida.xlsx
+++ b/color_comida.xlsx
@@ -15,7 +15,7 @@
     <sheet name="comida" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comida!$A$1:$I$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comida!$A$1:$I$132</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -116,9 +116,6 @@
     <t>salchicha</t>
   </si>
   <si>
-    <t>salmon</t>
-  </si>
-  <si>
     <t>arroz</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>pasta</t>
   </si>
   <si>
-    <t>atun</t>
-  </si>
-  <si>
     <t>picaña</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>aceituna</t>
   </si>
   <si>
-    <t>morron</t>
-  </si>
-  <si>
     <t>langostino</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>tortellini</t>
   </si>
   <si>
-    <t>jamon</t>
-  </si>
-  <si>
     <t>soja</t>
   </si>
   <si>
@@ -281,18 +269,12 @@
     <t>ocre</t>
   </si>
   <si>
-    <t>marron</t>
-  </si>
-  <si>
     <t>aqua</t>
   </si>
   <si>
     <t>carne</t>
   </si>
   <si>
-    <t>lacteo</t>
-  </si>
-  <si>
     <t>verdura</t>
   </si>
   <si>
@@ -329,9 +311,6 @@
     <t>mila pollo c/ arroz</t>
   </si>
   <si>
-    <t>burger</t>
-  </si>
-  <si>
     <t>panzotti suizo c/ crema</t>
   </si>
   <si>
@@ -347,9 +326,6 @@
     <t>salchicha c/ arroz</t>
   </si>
   <si>
-    <t>bife c/ pure calabaza</t>
-  </si>
-  <si>
     <t>fideo c/ tuco</t>
   </si>
   <si>
@@ -368,18 +344,12 @@
     <t>mila c/ espinaca a la crema</t>
   </si>
   <si>
-    <t>atun c/ arroz</t>
-  </si>
-  <si>
     <t>bife c/ ensalada</t>
   </si>
   <si>
     <t>solomillo a la mostaza c/ noisette</t>
   </si>
   <si>
-    <t>atun c/ ensalada</t>
-  </si>
-  <si>
     <t>matambre a la pizza c/ ensalada</t>
   </si>
   <si>
@@ -392,19 +362,49 @@
     <t>verdeo</t>
   </si>
   <si>
-    <t>tortellini de salmon al curry</t>
-  </si>
-  <si>
     <t>sandwich miga</t>
   </si>
   <si>
     <t>pavita</t>
   </si>
   <si>
-    <t>anana</t>
-  </si>
-  <si>
     <t>fideo</t>
+  </si>
+  <si>
+    <t>atún c/ arroz</t>
+  </si>
+  <si>
+    <t>atún c/ ensalada</t>
+  </si>
+  <si>
+    <t>atún</t>
+  </si>
+  <si>
+    <t>bife c/ puré calabaza</t>
+  </si>
+  <si>
+    <t>hamburguesa</t>
+  </si>
+  <si>
+    <t>tortellini de salmón al curry</t>
+  </si>
+  <si>
+    <t>salmón</t>
+  </si>
+  <si>
+    <t>ananá</t>
+  </si>
+  <si>
+    <t>jamón</t>
+  </si>
+  <si>
+    <t>morrón</t>
+  </si>
+  <si>
+    <t>lácteo</t>
+  </si>
+  <si>
+    <t>marrón</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -852,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -878,25 +878,25 @@
         <v>44051</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -907,25 +907,25 @@
         <v>44051</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <v>0.4</v>
@@ -936,25 +936,25 @@
         <v>44051</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>0.1</v>
@@ -965,25 +965,25 @@
         <v>44051</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>0.2</v>
@@ -994,25 +994,25 @@
         <v>44051</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I6">
         <v>0.4</v>
@@ -1023,25 +1023,25 @@
         <v>44051</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7">
         <v>0.1</v>
@@ -1052,25 +1052,25 @@
         <v>44051</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>0.1</v>
@@ -1081,25 +1081,25 @@
         <v>44051</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <v>0.1</v>
@@ -1110,25 +1110,25 @@
         <v>44051</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>0.1</v>
@@ -1139,25 +1139,25 @@
         <v>44052</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>0.3</v>
@@ -1168,25 +1168,25 @@
         <v>44052</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I12">
         <v>0.3</v>
@@ -1197,25 +1197,25 @@
         <v>44052</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>0.2</v>
@@ -1226,25 +1226,25 @@
         <v>44052</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I14">
         <v>0.2</v>
@@ -1255,25 +1255,25 @@
         <v>44052</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I15">
         <v>0.25</v>
@@ -1284,25 +1284,25 @@
         <v>44052</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <v>0.2</v>
@@ -1313,25 +1313,25 @@
         <v>44052</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I17">
         <v>0.15</v>
@@ -1342,25 +1342,25 @@
         <v>44052</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I18">
         <v>0.15</v>
@@ -1371,25 +1371,25 @@
         <v>44052</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I19">
         <v>0.1</v>
@@ -1400,25 +1400,25 @@
         <v>44052</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I20">
         <v>0.1</v>
@@ -1429,25 +1429,25 @@
         <v>44052</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>0.05</v>
@@ -1458,25 +1458,25 @@
         <v>44053</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I22">
         <v>0.5</v>
@@ -1487,25 +1487,25 @@
         <v>44053</v>
       </c>
       <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I23">
         <v>0.15</v>
@@ -1516,25 +1516,25 @@
         <v>44053</v>
       </c>
       <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>0.15</v>
@@ -1545,25 +1545,25 @@
         <v>44053</v>
       </c>
       <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I25">
         <v>0.2</v>
@@ -1574,25 +1574,25 @@
         <v>44053</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I26">
         <v>0.6</v>
@@ -1603,25 +1603,25 @@
         <v>44053</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I27">
         <v>0.4</v>
@@ -1632,25 +1632,25 @@
         <v>44054</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I28">
         <v>0.4</v>
@@ -1661,25 +1661,25 @@
         <v>44054</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I29">
         <v>0.5</v>
@@ -1690,25 +1690,25 @@
         <v>44054</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I30">
         <v>0.1</v>
@@ -1719,25 +1719,25 @@
         <v>44054</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I31">
         <v>0.5</v>
@@ -1748,25 +1748,25 @@
         <v>44054</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I32">
         <v>0.5</v>
@@ -1777,25 +1777,25 @@
         <v>44055</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I33">
         <v>0.8</v>
@@ -1806,25 +1806,25 @@
         <v>44055</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I34">
         <v>0.2</v>
@@ -1835,25 +1835,25 @@
         <v>44055</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I35">
         <v>0.5</v>
@@ -1864,25 +1864,25 @@
         <v>44055</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -1893,25 +1893,25 @@
         <v>44056</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I37">
         <v>0.5</v>
@@ -1922,25 +1922,25 @@
         <v>44056</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I38">
         <v>0.25</v>
@@ -1951,25 +1951,25 @@
         <v>44056</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I39">
         <v>0.25</v>
@@ -1980,25 +1980,25 @@
         <v>44056</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I40">
         <v>0.5</v>
@@ -2009,25 +2009,25 @@
         <v>44056</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I41">
         <v>0.15</v>
@@ -2038,25 +2038,25 @@
         <v>44056</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I42">
         <v>0.2</v>
@@ -2067,25 +2067,25 @@
         <v>44056</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I43">
         <v>0.15</v>
@@ -2096,25 +2096,25 @@
         <v>44057</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I44">
         <v>0.2</v>
@@ -2125,25 +2125,25 @@
         <v>44057</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I45">
         <v>0.6</v>
@@ -2154,25 +2154,25 @@
         <v>44057</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I46">
         <v>0.1</v>
@@ -2183,25 +2183,25 @@
         <v>44057</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I47">
         <v>0.05</v>
@@ -2212,25 +2212,25 @@
         <v>44057</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I48">
         <v>0.05</v>
@@ -2241,25 +2241,25 @@
         <v>44057</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I49">
         <v>0.3</v>
@@ -2270,25 +2270,25 @@
         <v>44057</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
         <v>30</v>
       </c>
-      <c r="F50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
       <c r="H50" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I50">
         <v>0.2</v>
@@ -2299,25 +2299,25 @@
         <v>44057</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I51">
         <v>0.2</v>
@@ -2328,25 +2328,25 @@
         <v>44057</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I52">
         <v>0.1</v>
@@ -2357,25 +2357,25 @@
         <v>44057</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I53">
         <v>0.1</v>
@@ -2386,25 +2386,25 @@
         <v>44057</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I54">
         <v>0.05</v>
@@ -2415,25 +2415,25 @@
         <v>44057</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I55">
         <v>0.05</v>
@@ -2444,25 +2444,25 @@
         <v>44058</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I56">
         <v>0.2</v>
@@ -2473,25 +2473,25 @@
         <v>44058</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I57">
         <v>0.25</v>
@@ -2502,25 +2502,25 @@
         <v>44058</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I58">
         <v>0.25</v>
@@ -2531,25 +2531,25 @@
         <v>44058</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G59" t="s">
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I59">
         <v>0.25</v>
@@ -2560,25 +2560,25 @@
         <v>44058</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I60">
         <v>0.05</v>
@@ -2589,25 +2589,25 @@
         <v>44058</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I61">
         <v>0.4</v>
@@ -2618,25 +2618,25 @@
         <v>44058</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I62">
         <v>0.6</v>
@@ -2647,25 +2647,25 @@
         <v>44059</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I63">
         <v>0.3</v>
@@ -2676,25 +2676,25 @@
         <v>44059</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
         <v>39</v>
       </c>
-      <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s">
-        <v>43</v>
-      </c>
       <c r="H64" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I64">
         <v>0.1</v>
@@ -2705,25 +2705,25 @@
         <v>44059</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I65">
         <v>0.1</v>
@@ -2734,25 +2734,25 @@
         <v>44059</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G66" t="s">
         <v>7</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I66">
         <v>0.1</v>
@@ -2763,25 +2763,25 @@
         <v>44059</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I67">
         <v>0.1</v>
@@ -2792,25 +2792,25 @@
         <v>44059</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I68">
         <v>0.1</v>
@@ -2821,25 +2821,25 @@
         <v>44059</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I69">
         <v>7.4999999999999997E-2</v>
@@ -2850,25 +2850,25 @@
         <v>44059</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I70">
         <v>7.4999999999999997E-2</v>
@@ -2879,25 +2879,25 @@
         <v>44059</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I71">
         <v>0.05</v>
@@ -2908,25 +2908,25 @@
         <v>44059</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I72">
         <v>0.25</v>
@@ -2937,25 +2937,25 @@
         <v>44059</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I73">
         <v>0.3</v>
@@ -2966,25 +2966,25 @@
         <v>44059</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G74" t="s">
         <v>7</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I74">
         <v>0.25</v>
@@ -2995,25 +2995,25 @@
         <v>44059</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I75">
         <v>0.15</v>
@@ -3024,25 +3024,25 @@
         <v>44059</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I76">
         <v>0.05</v>
@@ -3053,25 +3053,25 @@
         <v>44060</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G77" t="s">
-        <v>72</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I77">
         <v>0.5</v>
@@ -3082,25 +3082,25 @@
         <v>44060</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I78">
         <v>0.4</v>
@@ -3111,25 +3111,25 @@
         <v>44060</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I79">
         <v>0.1</v>
@@ -3140,25 +3140,25 @@
         <v>44060</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I80">
         <v>0.2</v>
@@ -3169,25 +3169,25 @@
         <v>44060</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G81" t="s">
-        <v>72</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I81">
         <v>0.4</v>
@@ -3198,25 +3198,25 @@
         <v>44060</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I82">
         <v>0.2</v>
@@ -3227,25 +3227,25 @@
         <v>44060</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I83">
         <v>0.2</v>
@@ -3256,25 +3256,25 @@
         <v>44061</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I84">
         <v>0.5</v>
@@ -3285,25 +3285,25 @@
         <v>44061</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I85">
         <v>0.4</v>
@@ -3314,25 +3314,25 @@
         <v>44061</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I86">
         <v>0.1</v>
@@ -3343,25 +3343,25 @@
         <v>44061</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G87" t="s">
-        <v>72</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I87">
         <v>0.5</v>
@@ -3372,25 +3372,25 @@
         <v>44061</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G88" t="s">
         <v>7</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I88">
         <v>0.15</v>
@@ -3401,25 +3401,25 @@
         <v>44061</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I89">
         <v>0.15</v>
@@ -3430,25 +3430,25 @@
         <v>44061</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G90" t="s">
         <v>13</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I90">
         <v>0.2</v>
@@ -3459,25 +3459,25 @@
         <v>44062</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I91">
         <v>0.2</v>
@@ -3488,25 +3488,25 @@
         <v>44062</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
+      <c r="H92" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G92" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I92">
         <v>0.3</v>
@@ -3517,25 +3517,25 @@
         <v>44062</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
         <v>26</v>
       </c>
-      <c r="E93" t="s">
-        <v>28</v>
-      </c>
       <c r="F93" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I93">
         <v>0.05</v>
@@ -3546,25 +3546,25 @@
         <v>44062</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I94">
         <v>2.5000000000000001E-2</v>
@@ -3575,25 +3575,25 @@
         <v>44062</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G95" t="s">
         <v>7</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I95">
         <v>2.5000000000000001E-2</v>
@@ -3604,25 +3604,25 @@
         <v>44062</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I96">
         <v>0.3</v>
@@ -3633,25 +3633,25 @@
         <v>44062</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I97">
         <v>0.1</v>
@@ -3662,25 +3662,25 @@
         <v>44062</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I98">
         <v>0.5</v>
@@ -3691,25 +3691,25 @@
         <v>44062</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I99">
         <v>0.5</v>
@@ -3720,25 +3720,25 @@
         <v>44063</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I100">
         <v>0.6</v>
@@ -3749,25 +3749,25 @@
         <v>44063</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I101">
         <v>0.4</v>
@@ -3778,25 +3778,25 @@
         <v>44063</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" t="s">
+        <v>113</v>
+      </c>
+      <c r="H102" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G102" t="s">
-        <v>72</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I102">
         <v>0.5</v>
@@ -3807,25 +3807,25 @@
         <v>44063</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I103">
         <v>0.4</v>
@@ -3836,25 +3836,25 @@
         <v>44063</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I104">
         <v>0.1</v>
@@ -3865,25 +3865,25 @@
         <v>44064</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" t="s">
         <v>104</v>
       </c>
-      <c r="E105" t="s">
-        <v>22</v>
-      </c>
       <c r="F105" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G105" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I105">
         <v>0.5</v>
@@ -3894,25 +3894,25 @@
         <v>44064</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G106" t="s">
         <v>7</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I106">
         <v>0.2</v>
@@ -3923,25 +3923,25 @@
         <v>44064</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I107">
         <v>0.1</v>
@@ -3952,25 +3952,25 @@
         <v>44064</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I108">
         <v>0.2</v>
@@ -3981,25 +3981,25 @@
         <v>44064</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F109" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" t="s">
+        <v>113</v>
+      </c>
+      <c r="H109" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I109">
         <v>0.35</v>
@@ -4010,25 +4010,25 @@
         <v>44064</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D110" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G110" t="s">
         <v>7</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I110">
         <v>0.25</v>
@@ -4039,25 +4039,25 @@
         <v>44064</v>
       </c>
       <c r="B111" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I111">
         <v>0.1</v>
@@ -4068,25 +4068,25 @@
         <v>44064</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I112">
         <v>0.15</v>
@@ -4097,25 +4097,25 @@
         <v>44064</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I113">
         <v>0.15</v>
@@ -4126,25 +4126,25 @@
         <v>44065</v>
       </c>
       <c r="B114" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E114" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" t="s">
+        <v>113</v>
+      </c>
+      <c r="H114" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G114" t="s">
-        <v>72</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I114">
         <v>0.35</v>
@@ -4155,25 +4155,25 @@
         <v>44065</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G115" t="s">
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I115">
         <v>0.2</v>
@@ -4184,25 +4184,25 @@
         <v>44065</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I116">
         <v>0.1</v>
@@ -4213,25 +4213,25 @@
         <v>44065</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I117">
         <v>0.2</v>
@@ -4242,25 +4242,25 @@
         <v>44065</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I118">
         <v>0.15</v>
@@ -4271,25 +4271,25 @@
         <v>44065</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F119" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I119">
         <v>0.7</v>
@@ -4300,25 +4300,25 @@
         <v>44065</v>
       </c>
       <c r="B120" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I120">
         <v>0.25</v>
@@ -4329,25 +4329,25 @@
         <v>44065</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I121">
         <v>2.5000000000000001E-2</v>
@@ -4358,25 +4358,25 @@
         <v>44065</v>
       </c>
       <c r="B122" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I122">
         <v>2.5000000000000001E-2</v>
@@ -4387,25 +4387,25 @@
         <v>44066</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D123" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I123">
         <v>0.25</v>
@@ -4416,25 +4416,25 @@
         <v>44066</v>
       </c>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G124" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I124">
         <v>0.15</v>
@@ -4445,25 +4445,25 @@
         <v>44066</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D125" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G125" t="s">
         <v>13</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I125">
         <v>0.15</v>
@@ -4474,25 +4474,25 @@
         <v>44066</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D126" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E126" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F126" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G126" t="s">
         <v>13</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I126">
         <v>0.15</v>
@@ -4503,25 +4503,25 @@
         <v>44066</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C127" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D127" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" t="s">
         <v>110</v>
       </c>
-      <c r="E127" t="s">
-        <v>38</v>
-      </c>
       <c r="F127" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I127" s="13">
         <v>0.15</v>
@@ -4532,25 +4532,25 @@
         <v>44066</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F128" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I128">
         <v>0.15</v>
@@ -4561,25 +4561,25 @@
         <v>44066</v>
       </c>
       <c r="B129" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I129">
         <v>0.25</v>
@@ -4590,25 +4590,25 @@
         <v>44066</v>
       </c>
       <c r="B130" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D130" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I130">
         <v>0.35</v>
@@ -4619,25 +4619,25 @@
         <v>44066</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D131" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E131" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I131">
         <v>0.35</v>
@@ -4648,32 +4648,32 @@
         <v>44066</v>
       </c>
       <c r="B132" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C132" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E132" t="s">
         <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I132">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I113"/>
+  <autoFilter ref="A1:I132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
